--- a/MonsterArchive.Server/Data/Source/COMP 584 Monster Data.xlsx
+++ b/MonsterArchive.Server/Data/Source/COMP 584 Monster Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MonsterArchive\MonsterArchive.Server\Data\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B3970E-DE36-4A57-A664-F34723B57712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6D5C94-24A6-4CDC-B133-F5BE818B1C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="2460" windowWidth="22275" windowHeight="15450" xr2:uid="{554B3D7B-CF85-425D-AF4D-B69C20DB3A0F}"/>
+    <workbookView xWindow="9060" yWindow="2115" windowWidth="22275" windowHeight="15450" xr2:uid="{554B3D7B-CF85-425D-AF4D-B69C20DB3A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>Rarity</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
   </si>
   <si>
     <t>Frostfang Barioth Gem</t>
+  </si>
+  <si>
+    <t>LootId</t>
   </si>
 </sst>
 </file>
@@ -529,10 +529,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,13 +850,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375BDD9E-3871-47F3-AEFA-0A409A0DFB30}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -874,28 +870,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>66</v>
@@ -930,15 +926,15 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -959,18 +955,18 @@
         <v>7</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -991,18 +987,18 @@
         <v>7</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -1023,18 +1019,18 @@
         <v>7</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -1055,18 +1051,18 @@
         <v>7</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -1087,18 +1083,18 @@
         <v>13</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1119,18 +1115,18 @@
         <v>13</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>44</v>
@@ -1151,18 +1147,18 @@
         <v>13</v>
       </c>
       <c r="H9" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -1183,18 +1179,18 @@
         <v>7</v>
       </c>
       <c r="H10" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -1215,18 +1211,18 @@
         <v>7</v>
       </c>
       <c r="H11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -1247,18 +1243,18 @@
         <v>13</v>
       </c>
       <c r="H12" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -1279,18 +1275,18 @@
         <v>13</v>
       </c>
       <c r="H13" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
@@ -1311,18 +1307,18 @@
         <v>13</v>
       </c>
       <c r="H14" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -1343,18 +1339,18 @@
         <v>13</v>
       </c>
       <c r="H15" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
@@ -1375,18 +1371,18 @@
         <v>13</v>
       </c>
       <c r="H16" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -1407,18 +1403,18 @@
         <v>13</v>
       </c>
       <c r="H17" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
@@ -1439,18 +1435,18 @@
         <v>13</v>
       </c>
       <c r="H18" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -1471,18 +1467,18 @@
         <v>16</v>
       </c>
       <c r="H19" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
@@ -1503,18 +1499,18 @@
         <v>7</v>
       </c>
       <c r="H20" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
@@ -1535,18 +1531,18 @@
         <v>7</v>
       </c>
       <c r="H21" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>28</v>
@@ -1567,18 +1563,18 @@
         <v>16</v>
       </c>
       <c r="H22" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>28</v>
@@ -1599,18 +1595,18 @@
         <v>16</v>
       </c>
       <c r="H23" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -1631,18 +1627,18 @@
         <v>7</v>
       </c>
       <c r="H24" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>32</v>
@@ -1663,18 +1659,18 @@
         <v>7</v>
       </c>
       <c r="H25" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
@@ -1695,18 +1691,18 @@
         <v>7</v>
       </c>
       <c r="H26" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
@@ -1727,18 +1723,18 @@
         <v>7</v>
       </c>
       <c r="H27" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>20</v>
@@ -1759,18 +1755,18 @@
         <v>7</v>
       </c>
       <c r="H28" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
@@ -1791,18 +1787,18 @@
         <v>13</v>
       </c>
       <c r="H29" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
@@ -1823,18 +1819,18 @@
         <v>7</v>
       </c>
       <c r="H30" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
@@ -1855,18 +1851,18 @@
         <v>7</v>
       </c>
       <c r="H31" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -1887,18 +1883,18 @@
         <v>13</v>
       </c>
       <c r="H32" s="1">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
@@ -1919,18 +1915,18 @@
         <v>13</v>
       </c>
       <c r="H33" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>17</v>
@@ -1951,18 +1947,18 @@
         <v>7</v>
       </c>
       <c r="H34" s="1">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>37</v>
@@ -1983,18 +1979,18 @@
         <v>7</v>
       </c>
       <c r="H35" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
@@ -2015,18 +2011,18 @@
         <v>7</v>
       </c>
       <c r="H36" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
@@ -2047,18 +2043,18 @@
         <v>7</v>
       </c>
       <c r="H37" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
@@ -2079,18 +2075,18 @@
         <v>7</v>
       </c>
       <c r="H38" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -2111,18 +2107,18 @@
         <v>7</v>
       </c>
       <c r="H39" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
@@ -2143,18 +2139,18 @@
         <v>7</v>
       </c>
       <c r="H40" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>42</v>
@@ -2175,18 +2171,18 @@
         <v>7</v>
       </c>
       <c r="H41" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
@@ -2207,18 +2203,18 @@
         <v>7</v>
       </c>
       <c r="H42" s="1">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
@@ -2239,18 +2235,18 @@
         <v>13</v>
       </c>
       <c r="H43" s="1">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
@@ -2271,18 +2267,18 @@
         <v>13</v>
       </c>
       <c r="H44" s="1">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
@@ -2303,18 +2299,18 @@
         <v>13</v>
       </c>
       <c r="H45" s="1">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
@@ -2335,18 +2331,18 @@
         <v>13</v>
       </c>
       <c r="H46" s="1">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
@@ -2367,18 +2363,18 @@
         <v>13</v>
       </c>
       <c r="H47" s="1">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
@@ -2399,18 +2395,18 @@
         <v>7</v>
       </c>
       <c r="H48" s="1">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>48</v>
@@ -2431,18 +2427,18 @@
         <v>7</v>
       </c>
       <c r="H49" s="1">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>49</v>
@@ -2463,18 +2459,18 @@
         <v>7</v>
       </c>
       <c r="H50" s="1">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
@@ -2495,18 +2491,18 @@
         <v>7</v>
       </c>
       <c r="H51" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
@@ -2527,18 +2523,18 @@
         <v>7</v>
       </c>
       <c r="H52" s="1">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
@@ -2559,18 +2555,18 @@
         <v>7</v>
       </c>
       <c r="H53" s="1">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>52</v>
@@ -2591,18 +2587,18 @@
         <v>7</v>
       </c>
       <c r="H54" s="1">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -2623,18 +2619,18 @@
         <v>7</v>
       </c>
       <c r="H55" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>54</v>
@@ -2655,18 +2651,18 @@
         <v>7</v>
       </c>
       <c r="H56" s="1">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>55</v>
@@ -2687,18 +2683,18 @@
         <v>7</v>
       </c>
       <c r="H57" s="1">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>55</v>
@@ -2719,18 +2715,18 @@
         <v>7</v>
       </c>
       <c r="H58" s="1">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>58</v>
@@ -2751,18 +2747,18 @@
         <v>7</v>
       </c>
       <c r="H59" s="1">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>58</v>
@@ -2783,18 +2779,18 @@
         <v>7</v>
       </c>
       <c r="H60" s="1">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>59</v>
@@ -2815,18 +2811,18 @@
         <v>7</v>
       </c>
       <c r="H61" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>59</v>
@@ -2847,18 +2843,18 @@
         <v>7</v>
       </c>
       <c r="H62" s="1">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>60</v>
@@ -2879,18 +2875,18 @@
         <v>7</v>
       </c>
       <c r="H63" s="1">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>62</v>
@@ -2911,18 +2907,18 @@
         <v>7</v>
       </c>
       <c r="H64" s="1">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>63</v>
@@ -2943,18 +2939,18 @@
         <v>7</v>
       </c>
       <c r="H65" s="1">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>63</v>
@@ -2975,18 +2971,18 @@
         <v>7</v>
       </c>
       <c r="H66" s="1">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>64</v>
@@ -3007,18 +3003,18 @@
         <v>7</v>
       </c>
       <c r="H67" s="1">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>64</v>
@@ -3039,18 +3035,18 @@
         <v>7</v>
       </c>
       <c r="H68" s="1">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>65</v>
@@ -3071,18 +3067,18 @@
         <v>13</v>
       </c>
       <c r="H69" s="1">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>65</v>
@@ -3103,13 +3099,13 @@
         <v>13</v>
       </c>
       <c r="H70" s="1">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3322,18 +3318,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3356,14 +3352,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223342B6-F23F-4315-A1FC-A37918D927D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC99731-7F86-46D8-8287-7290F24CF416}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3378,4 +3366,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223342B6-F23F-4315-A1FC-A37918D927D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>